--- a/src/main/resources/public/excel/material.xlsx
+++ b/src/main/resources/public/excel/material.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucifer.chan/Desktop/赚钱不容易/戴涵ERP/Excel模版/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucifer.chan/IdeaProjects/erp/src/main/resources/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="9200" windowWidth="32760" windowHeight="20540"/>
+    <workbookView xWindow="500" yWindow="5260" windowWidth="32760" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -27,96 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
-  <si>
-    <t>名称</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>类别</t>
   </si>
   <si>
     <t>规格描述</t>
-  </si>
-  <si>
-    <t>头径D(mm)上限</t>
-  </si>
-  <si>
-    <t>头径D(mm)下限</t>
-  </si>
-  <si>
-    <t>头厚T(mm)上限</t>
-  </si>
-  <si>
-    <t>头厚T(mm)下限</t>
-  </si>
-  <si>
-    <t>脚径d(mm)上限</t>
-  </si>
-  <si>
-    <t>脚径d(mm)下限</t>
-  </si>
-  <si>
-    <t>脚长L(mm)上限</t>
-  </si>
-  <si>
-    <t>脚长L(mm)下限</t>
-  </si>
-  <si>
-    <t>头径银层S1(mm)上限</t>
-  </si>
-  <si>
-    <t>头径银层S1(mm)下限</t>
-  </si>
-  <si>
-    <t>脱模角度θ(° )上限</t>
-  </si>
-  <si>
-    <t>脱模角度θ(° )下限</t>
-  </si>
-  <si>
-    <t>球半径SR(mm)上限</t>
-  </si>
-  <si>
-    <t>球半径SR(mm)下限</t>
-  </si>
-  <si>
-    <t>同轴度◎(mm)上限</t>
-  </si>
-  <si>
-    <t>同轴度◎(mm)下限</t>
-  </si>
-  <si>
-    <t>边缘S1(mm)上限</t>
-  </si>
-  <si>
-    <t>边缘S1(mm)下限</t>
-  </si>
-  <si>
-    <t>钉脚S2(mm)上限</t>
-  </si>
-  <si>
-    <t>钉脚S2(mm)下限</t>
-  </si>
-  <si>
-    <t>脚边缘S2(mm)上限</t>
-  </si>
-  <si>
-    <t>脚边缘S2(mm)下限</t>
-  </si>
-  <si>
-    <t>头部复合强度</t>
-  </si>
-  <si>
-    <t>脚部复合强度</t>
-  </si>
-  <si>
-    <t>属性-1</t>
-  </si>
-  <si>
-    <t>属性-2</t>
-  </si>
-  <si>
-    <t>属性-3</t>
   </si>
   <si>
     <t>备注</t>
@@ -125,94 +41,21 @@
     <t>specification</t>
   </si>
   <si>
-    <t>spHdmmUpper</t>
-  </si>
-  <si>
-    <t>spHdmmLower</t>
-  </si>
-  <si>
-    <t>spHtmmUpper</t>
-  </si>
-  <si>
-    <t>spHtmmLower</t>
-  </si>
-  <si>
-    <t>spFtmmUpper</t>
-  </si>
-  <si>
-    <t>spFtmmLower</t>
-  </si>
-  <si>
-    <t>spFlmmUpper</t>
-  </si>
-  <si>
-    <t>spFlmmLower</t>
-  </si>
-  <si>
-    <t>spHdsmmUpper</t>
-  </si>
-  <si>
-    <t>spHdsmmLower</t>
-  </si>
-  <si>
-    <t>spTmammUpper</t>
-  </si>
-  <si>
-    <t>spTmammLower</t>
-  </si>
-  <si>
-    <t>spSrammUpper</t>
-  </si>
-  <si>
-    <t>spSrammLower</t>
-  </si>
-  <si>
-    <t>spAxlemmUpper</t>
-  </si>
-  <si>
-    <t>spAxlemmLower</t>
-  </si>
-  <si>
-    <t>spEdgemmUpper</t>
-  </si>
-  <si>
-    <t>speEdgeemmLower</t>
-  </si>
-  <si>
-    <t>spFdsmmUpper</t>
-  </si>
-  <si>
-    <t>speFdsmmLower</t>
-  </si>
-  <si>
-    <t>spFaxlemmUpper</t>
-  </si>
-  <si>
-    <t>speFaxlemmLower</t>
-  </si>
-  <si>
-    <t>spHCstrength</t>
-  </si>
-  <si>
-    <t>spFCstrength</t>
-  </si>
-  <si>
-    <t>userDefinedOne</t>
-  </si>
-  <si>
-    <t>userDefinedTwo</t>
-  </si>
-  <si>
-    <t>userDefinedThree</t>
-  </si>
-  <si>
     <t>remark</t>
   </si>
   <si>
-    <t>rawName</t>
+    <t>rawTypeName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rawTypeName</t>
+    <t>单位</t>
+    <rPh sb="0" eb="1">
+      <t>dan wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1537,21 +1380,20 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
-    <col min="3" max="31" width="16.33203125" style="1" customWidth="1"/>
-    <col min="32" max="250" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="222" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1559,225 +1401,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="2" spans="1:31" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A3:A1048576">
       <formula1>"银丝,铜丝-紫铜丝,铜丝-黄铜丝,铜丝-铜基丝,铜丝-铜镍丝,铜丝-白铜丝,铝丝,铁丝"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/public/excel/material.xlsx
+++ b/src/main/resources/public/excel/material.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="5260" windowWidth="32760" windowHeight="20540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32740" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>类别</t>
   </si>
@@ -58,6 +58,17 @@
     <t>unit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="1">
+      <t>m c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rawName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -74,10 +85,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1380,57 +1393,65 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="222" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="223" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A3:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
       <formula1>"银丝,铜丝-紫铜丝,铜丝-黄铜丝,铜丝-铜基丝,铜丝-铜镍丝,铜丝-白铜丝,铝丝,铁丝"</formula1>
     </dataValidation>
   </dataValidations>
